--- a/product_region.xlsx
+++ b/product_region.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klahrichi\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E6437-B70D-4B3E-9841-73A8623DEC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Product A</t>
   </si>
@@ -50,62 +69,83 @@
   </si>
   <si>
     <t>Southwest</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -295,20 +335,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -334,152 +379,300 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>15749.0</v>
+        <v>15749</v>
       </c>
       <c r="C2" s="1">
-        <v>40195.0</v>
+        <v>40195</v>
       </c>
       <c r="D2" s="1">
-        <v>15472.0</v>
+        <v>15472</v>
       </c>
       <c r="E2" s="1">
-        <v>63029.0</v>
+        <v>63029</v>
       </c>
       <c r="F2" s="1">
-        <v>8509.0</v>
+        <v>8509</v>
       </c>
       <c r="G2" s="1">
-        <v>42987.0</v>
+        <v>42987</v>
       </c>
       <c r="H2" s="1">
-        <v>27778.0</v>
+        <v>27778</v>
       </c>
       <c r="I2" s="1">
-        <v>12510.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>48044.0</v>
+        <v>48044</v>
       </c>
       <c r="C3" s="1">
-        <v>20741.0</v>
+        <v>20741</v>
       </c>
       <c r="D3" s="1">
-        <v>40643.0</v>
+        <v>40643</v>
       </c>
       <c r="E3" s="1">
-        <v>15687.0</v>
+        <v>15687</v>
       </c>
       <c r="F3" s="1">
-        <v>12342.0</v>
+        <v>12342</v>
       </c>
       <c r="G3" s="1">
-        <v>23297.0</v>
+        <v>23297</v>
       </c>
       <c r="H3" s="1">
-        <v>10401.0</v>
+        <v>10401</v>
       </c>
       <c r="I3" s="1">
-        <v>10522.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>5240.0</v>
+        <v>5240</v>
       </c>
       <c r="C4" s="1">
-        <v>45296.0</v>
+        <v>45296</v>
       </c>
       <c r="D4" s="1">
-        <v>16114.0</v>
+        <v>16114</v>
       </c>
       <c r="E4" s="1">
-        <v>63359.0</v>
+        <v>63359</v>
       </c>
       <c r="F4" s="1">
-        <v>58198.0</v>
+        <v>58198</v>
       </c>
       <c r="G4" s="1">
-        <v>24191.0</v>
+        <v>24191</v>
       </c>
       <c r="H4" s="1">
-        <v>46826.0</v>
+        <v>46826</v>
       </c>
       <c r="I4" s="1">
-        <v>50278.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>50278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>12860.0</v>
+        <v>12860</v>
       </c>
       <c r="C5" s="1">
-        <v>11548.0</v>
+        <v>11548</v>
       </c>
       <c r="D5" s="1">
-        <v>43134.0</v>
+        <v>43134</v>
       </c>
       <c r="E5" s="1">
-        <v>19331.0</v>
+        <v>19331</v>
       </c>
       <c r="F5" s="1">
-        <v>60563.0</v>
+        <v>60563</v>
       </c>
       <c r="G5" s="1">
-        <v>51475.0</v>
+        <v>51475</v>
       </c>
       <c r="H5" s="1">
-        <v>28954.0</v>
+        <v>28954</v>
       </c>
       <c r="I5" s="1">
-        <v>14405.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>14405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>37087.0</v>
+        <v>37087</v>
       </c>
       <c r="C6" s="1">
-        <v>61506.0</v>
+        <v>61506</v>
       </c>
       <c r="D6" s="1">
-        <v>54084.0</v>
+        <v>54084</v>
       </c>
       <c r="E6" s="1">
-        <v>14715.0</v>
+        <v>14715</v>
       </c>
       <c r="F6" s="1">
-        <v>17811.0</v>
+        <v>17811</v>
       </c>
       <c r="G6" s="1">
-        <v>32814.0</v>
+        <v>32814</v>
       </c>
       <c r="H6" s="1">
-        <v>47853.0</v>
+        <v>47853</v>
       </c>
       <c r="I6" s="1">
-        <v>44639.0</v>
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f ca="1">RANDBETWEEN(0, MAX(B2:I6)+10)</f>
+        <v>47731</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:I7" ca="1" si="0">RANDBETWEEN(0, MAX(C2:J6)+10)</f>
+        <v>34102</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40537</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6459</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>58325</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>34177</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>43662</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>48011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:I8" ca="1" si="1">RANDBETWEEN(0, MAX(B3:I7)+10)</f>
+        <v>5883</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8966</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>62119</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>31829</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>32379</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>17359</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>40622</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:I9" ca="1" si="2">RANDBETWEEN(0, MAX(B4:I8)+10)</f>
+        <v>43575</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="2"/>
+        <v>33680</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>35088</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>7473</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="2"/>
+        <v>4835</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10311</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>3914</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:I10" ca="1" si="3">RANDBETWEEN(0, MAX(B5:I9)+10)</f>
+        <v>10005</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="3"/>
+        <v>52561</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="3"/>
+        <v>10914</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>31351</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="3"/>
+        <v>25032</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="3"/>
+        <v>8725</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="3"/>
+        <v>22098</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="3"/>
+        <v>32666</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>